--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H2">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I2">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J2">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N2">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O2">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P2">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q2">
-        <v>10.88521991108884</v>
+        <v>23.858265563649</v>
       </c>
       <c r="R2">
-        <v>10.88521991108884</v>
+        <v>95.43306225459601</v>
       </c>
       <c r="S2">
-        <v>0.0004878468300753861</v>
+        <v>0.001007504886609984</v>
       </c>
       <c r="T2">
-        <v>0.0004878468300753861</v>
+        <v>0.0005626619058267753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H3">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I3">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J3">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N3">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P3">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q3">
-        <v>1452.92251241988</v>
+        <v>1570.590590119155</v>
       </c>
       <c r="R3">
-        <v>1452.92251241988</v>
+        <v>9423.543540714933</v>
       </c>
       <c r="S3">
-        <v>0.06511615271154433</v>
+        <v>0.06632408756568012</v>
       </c>
       <c r="T3">
-        <v>0.06511615271154433</v>
+        <v>0.05556008413640637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H4">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I4">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J4">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N4">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O4">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P4">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q4">
-        <v>1188.844187646672</v>
+        <v>1212.123216265951</v>
       </c>
       <c r="R4">
-        <v>1188.844187646672</v>
+        <v>7272.739297595707</v>
       </c>
       <c r="S4">
-        <v>0.05328085910383432</v>
+        <v>0.05118645612789366</v>
       </c>
       <c r="T4">
-        <v>0.05328085910383432</v>
+        <v>0.04287919990296037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H5">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I5">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J5">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N5">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O5">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P5">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q5">
-        <v>1189.680983463804</v>
+        <v>1234.498982875796</v>
       </c>
       <c r="R5">
-        <v>1189.680983463804</v>
+        <v>7406.993897254777</v>
       </c>
       <c r="S5">
-        <v>0.0533183620840352</v>
+        <v>0.05213135692719617</v>
       </c>
       <c r="T5">
-        <v>0.0533183620840352</v>
+        <v>0.04367074894399038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H6">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I6">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J6">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N6">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O6">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P6">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q6">
-        <v>59.35719873723156</v>
+        <v>67.18203180653802</v>
       </c>
       <c r="R6">
-        <v>59.35719873723156</v>
+        <v>403.0921908392281</v>
       </c>
       <c r="S6">
-        <v>0.002660233002423241</v>
+        <v>0.002837013661236242</v>
       </c>
       <c r="T6">
-        <v>0.002660233002423241</v>
+        <v>0.00237658328217973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.040952614113</v>
+        <v>52.813101</v>
       </c>
       <c r="H7">
-        <v>52.040952614113</v>
+        <v>105.626202</v>
       </c>
       <c r="I7">
-        <v>0.267099108943536</v>
+        <v>0.2636577117692198</v>
       </c>
       <c r="J7">
-        <v>0.267099108943536</v>
+        <v>0.1954072982860194</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N7">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O7">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P7">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q7">
-        <v>2058.034056440918</v>
+        <v>2135.305420027709</v>
       </c>
       <c r="R7">
-        <v>2058.034056440918</v>
+        <v>8541.221680110835</v>
       </c>
       <c r="S7">
-        <v>0.09223565521162352</v>
+        <v>0.09017129260060365</v>
       </c>
       <c r="T7">
-        <v>0.09223565521162352</v>
+        <v>0.05035802011465569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H8">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I8">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J8">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N8">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O8">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P8">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q8">
-        <v>0.7875092287583509</v>
+        <v>1.869847537204</v>
       </c>
       <c r="R8">
-        <v>0.7875092287583509</v>
+        <v>11.219085223224</v>
       </c>
       <c r="S8">
-        <v>3.529408537842244E-05</v>
+        <v>7.896133631017156E-05</v>
       </c>
       <c r="T8">
-        <v>3.529408537842244E-05</v>
+        <v>6.614638285934517E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H9">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I9">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J9">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N9">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P9">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q9">
-        <v>105.1140809783578</v>
+        <v>123.09213924438</v>
       </c>
       <c r="R9">
-        <v>105.1140809783578</v>
+        <v>1107.82925319942</v>
       </c>
       <c r="S9">
-        <v>0.004710935711031474</v>
+        <v>0.005198027973204513</v>
       </c>
       <c r="T9">
-        <v>0.004710935711031474</v>
+        <v>0.006531628601342713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H10">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I10">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J10">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N10">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O10">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P10">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q10">
-        <v>86.00889802637244</v>
+        <v>94.99792030884046</v>
       </c>
       <c r="R10">
-        <v>86.00889802637244</v>
+        <v>854.9812827795641</v>
       </c>
       <c r="S10">
-        <v>0.003854691830130033</v>
+        <v>0.004011644043176795</v>
       </c>
       <c r="T10">
-        <v>0.003854691830130033</v>
+        <v>0.005040867249251481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H11">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I11">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J11">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N11">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O11">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P11">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q11">
-        <v>86.06943740306485</v>
+        <v>96.75157972623825</v>
       </c>
       <c r="R11">
-        <v>86.06943740306485</v>
+        <v>870.7642175361441</v>
       </c>
       <c r="S11">
-        <v>0.003857405045228613</v>
+        <v>0.004085698899669375</v>
       </c>
       <c r="T11">
-        <v>0.003857405045228613</v>
+        <v>0.005133921542385087</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H12">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I12">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J12">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N12">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O12">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P12">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q12">
-        <v>4.294294665668135</v>
+        <v>5.265267769892446</v>
       </c>
       <c r="R12">
-        <v>4.294294665668135</v>
+        <v>47.38740992903201</v>
       </c>
       <c r="S12">
-        <v>0.0001924589541752567</v>
+        <v>0.0002223457104760867</v>
       </c>
       <c r="T12">
-        <v>0.0001924589541752567</v>
+        <v>0.0002793904937445274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.76498874544929</v>
+        <v>4.139129333333334</v>
       </c>
       <c r="H13">
-        <v>3.76498874544929</v>
+        <v>12.417388</v>
       </c>
       <c r="I13">
-        <v>0.01932372657642764</v>
+        <v>0.02066368662471691</v>
       </c>
       <c r="J13">
-        <v>0.01932372657642764</v>
+        <v>0.02297202961864744</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N13">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O13">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P13">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q13">
-        <v>148.8918759367616</v>
+        <v>167.350621953866</v>
       </c>
       <c r="R13">
-        <v>148.8918759367616</v>
+        <v>1004.103731723196</v>
       </c>
       <c r="S13">
-        <v>0.006672940950483841</v>
+        <v>0.007067008661879968</v>
       </c>
       <c r="T13">
-        <v>0.006672940950483841</v>
+        <v>0.00592007534906428</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H14">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I14">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J14">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N14">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O14">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P14">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q14">
-        <v>9.441260287844095</v>
+        <v>20.563335600284</v>
       </c>
       <c r="R14">
-        <v>9.441260287844095</v>
+        <v>123.380013601704</v>
       </c>
       <c r="S14">
-        <v>0.0004231323704034055</v>
+        <v>0.0008683640915563065</v>
       </c>
       <c r="T14">
-        <v>0.0004231323704034055</v>
+        <v>0.0007274337839947596</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H15">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I15">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J15">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N15">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P15">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q15">
-        <v>1260.187642497737</v>
+        <v>1353.68521693698</v>
       </c>
       <c r="R15">
-        <v>1260.187642497737</v>
+        <v>12183.16695243282</v>
       </c>
       <c r="S15">
-        <v>0.05647828447328072</v>
+        <v>0.05716444338157121</v>
       </c>
       <c r="T15">
-        <v>0.05647828447328072</v>
+        <v>0.07183049327468798</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H16">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I16">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J16">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N16">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O16">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P16">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q16">
-        <v>1031.140161516503</v>
+        <v>1044.723742322205</v>
       </c>
       <c r="R16">
-        <v>1031.140161516503</v>
+        <v>9402.513680899845</v>
       </c>
       <c r="S16">
-        <v>0.04621298083714404</v>
+        <v>0.04411738450722931</v>
       </c>
       <c r="T16">
-        <v>0.04621298083714404</v>
+        <v>0.05543609460150851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H17">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I17">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J17">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N17">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O17">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P17">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q17">
-        <v>1031.865953662352</v>
+        <v>1064.009318504781</v>
       </c>
       <c r="R17">
-        <v>1031.865953662352</v>
+        <v>9576.083866543026</v>
       </c>
       <c r="S17">
-        <v>0.04624550892573926</v>
+        <v>0.0449317904074905</v>
       </c>
       <c r="T17">
-        <v>0.04624550892573926</v>
+        <v>0.05645944362899919</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H18">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I18">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J18">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N18">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O18">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P18">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q18">
-        <v>51.48327436771433</v>
+        <v>57.9039018012969</v>
       </c>
       <c r="R18">
-        <v>51.48327436771433</v>
+        <v>521.1351162116721</v>
       </c>
       <c r="S18">
-        <v>0.002307344491644586</v>
+        <v>0.002445209768621114</v>
       </c>
       <c r="T18">
-        <v>0.002307344491644586</v>
+        <v>0.003072550233153563</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.137551953055</v>
+        <v>45.51938266666667</v>
       </c>
       <c r="H19">
-        <v>45.137551953055</v>
+        <v>136.558148</v>
       </c>
       <c r="I19">
-        <v>0.2316675483623647</v>
+        <v>0.227245438116592</v>
       </c>
       <c r="J19">
-        <v>0.2316675483623647</v>
+        <v>0.2526310541736829</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N19">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O19">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P19">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q19">
-        <v>1785.029183316032</v>
+        <v>1840.410479294686</v>
       </c>
       <c r="R19">
-        <v>1785.029183316032</v>
+        <v>11042.46287576812</v>
       </c>
       <c r="S19">
-        <v>0.08000029726415271</v>
+        <v>0.07771824596012354</v>
       </c>
       <c r="T19">
-        <v>0.08000029726415271</v>
+        <v>0.06510503865133888</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H20">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I20">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J20">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N20">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O20">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P20">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q20">
-        <v>8.908458563823293</v>
+        <v>19.696199479626</v>
       </c>
       <c r="R20">
-        <v>8.908458563823293</v>
+        <v>118.177196877756</v>
       </c>
       <c r="S20">
-        <v>0.0003992536032084993</v>
+        <v>0.0008317460114788484</v>
       </c>
       <c r="T20">
-        <v>0.0003992536032084993</v>
+        <v>0.0006967585996885679</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H21">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I21">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J21">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N21">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P21">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q21">
-        <v>1189.071061867396</v>
+        <v>1296.60161092947</v>
       </c>
       <c r="R21">
-        <v>1189.071061867396</v>
+        <v>11669.41449836523</v>
       </c>
       <c r="S21">
-        <v>0.05329102700768101</v>
+        <v>0.0547538736842705</v>
       </c>
       <c r="T21">
-        <v>0.05329102700768101</v>
+        <v>0.06880147033337571</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H22">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I22">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J22">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N22">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O22">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P22">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q22">
-        <v>972.9494921552903</v>
+        <v>1000.668745084107</v>
       </c>
       <c r="R22">
-        <v>972.9494921552903</v>
+        <v>9006.018705756967</v>
       </c>
       <c r="S22">
-        <v>0.04360502860285678</v>
+        <v>0.04225699675697308</v>
       </c>
       <c r="T22">
-        <v>0.04360502860285678</v>
+        <v>0.05309840771298065</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H23">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I23">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J23">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N23">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O23">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P23">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q23">
-        <v>973.634325436031</v>
+        <v>1019.141067033971</v>
       </c>
       <c r="R23">
-        <v>973.634325436031</v>
+        <v>9172.269603305736</v>
       </c>
       <c r="S23">
-        <v>0.04363572102320918</v>
+        <v>0.04303705994228176</v>
       </c>
       <c r="T23">
-        <v>0.04363572102320918</v>
+        <v>0.05407860309443712</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H24">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I24">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J24">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N24">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O24">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P24">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q24">
-        <v>48.57790193807466</v>
+        <v>55.46214985234534</v>
       </c>
       <c r="R24">
-        <v>48.57790193807466</v>
+        <v>499.159348671108</v>
       </c>
       <c r="S24">
-        <v>0.002177133366691176</v>
+        <v>0.00234209762017532</v>
       </c>
       <c r="T24">
-        <v>0.002177133366691176</v>
+        <v>0.002942983739589804</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.5902897480684</v>
+        <v>43.599874</v>
       </c>
       <c r="H25">
-        <v>42.5902897480684</v>
+        <v>130.799622</v>
       </c>
       <c r="I25">
-        <v>0.2185937779753684</v>
+        <v>0.2176627161557187</v>
       </c>
       <c r="J25">
-        <v>0.2185937779753684</v>
+        <v>0.2419778451548658</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N25">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O25">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P25">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q25">
-        <v>1684.294048672752</v>
+        <v>1762.802136248829</v>
       </c>
       <c r="R25">
-        <v>1684.294048672752</v>
+        <v>10576.81281749298</v>
       </c>
       <c r="S25">
-        <v>0.0754856143717218</v>
+        <v>0.07444094214053917</v>
       </c>
       <c r="T25">
-        <v>0.0754856143717218</v>
+        <v>0.06235962167479391</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H26">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I26">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J26">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N26">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O26">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P26">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q26">
-        <v>9.29046913450132</v>
+        <v>21.081651020098</v>
       </c>
       <c r="R26">
-        <v>9.29046913450132</v>
+        <v>126.489906120588</v>
       </c>
       <c r="S26">
-        <v>0.0004163743088518199</v>
+        <v>0.0008902519072013612</v>
       </c>
       <c r="T26">
-        <v>0.0004163743088518199</v>
+        <v>0.0007457693378400668</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H27">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I27">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J27">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N27">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P27">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q27">
-        <v>1240.06054693559</v>
+        <v>1387.80594205431</v>
       </c>
       <c r="R27">
-        <v>1240.06054693559</v>
+        <v>12490.25347848879</v>
       </c>
       <c r="S27">
-        <v>0.05557624116604212</v>
+        <v>0.05860531917359706</v>
       </c>
       <c r="T27">
-        <v>0.05557624116604212</v>
+        <v>0.07364103865510779</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H28">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I28">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J28">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N28">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O28">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P28">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q28">
-        <v>1014.671299365406</v>
+        <v>1071.056844870213</v>
       </c>
       <c r="R28">
-        <v>1014.671299365406</v>
+        <v>9639.511603831917</v>
       </c>
       <c r="S28">
-        <v>0.04547488989722867</v>
+        <v>0.04522939868218857</v>
       </c>
       <c r="T28">
-        <v>0.04547488989722867</v>
+        <v>0.0568334059718405</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H29">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I29">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J29">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N29">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O29">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P29">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q29">
-        <v>1015.385499517028</v>
+        <v>1090.828529518348</v>
       </c>
       <c r="R29">
-        <v>1015.385499517028</v>
+        <v>9817.456765665127</v>
       </c>
       <c r="S29">
-        <v>0.04550689846323414</v>
+        <v>0.04606433233846649</v>
       </c>
       <c r="T29">
-        <v>0.04550689846323414</v>
+        <v>0.05788254933499298</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H30">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I30">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J30">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N30">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O30">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P30">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q30">
-        <v>50.66100889858353</v>
+        <v>59.36341623778711</v>
       </c>
       <c r="R30">
-        <v>50.66100889858353</v>
+        <v>534.270746140084</v>
       </c>
       <c r="S30">
-        <v>0.002270492723295169</v>
+        <v>0.002506843248344055</v>
       </c>
       <c r="T30">
-        <v>0.002270492723295169</v>
+        <v>0.003149996334066033</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>44.4166372329266</v>
+        <v>46.66673533333333</v>
       </c>
       <c r="H31">
-        <v>44.4166372329266</v>
+        <v>140.000206</v>
       </c>
       <c r="I31">
-        <v>0.2279674685271936</v>
+        <v>0.2329733422342775</v>
       </c>
       <c r="J31">
-        <v>0.2279674685271936</v>
+        <v>0.2589988231702788</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N31">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O31">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P31">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q31">
-        <v>1756.519577490494</v>
+        <v>1886.799506286617</v>
       </c>
       <c r="R31">
-        <v>1756.519577490494</v>
+        <v>11320.7970377197</v>
       </c>
       <c r="S31">
-        <v>0.07872257196854167</v>
+        <v>0.07967719688448002</v>
       </c>
       <c r="T31">
-        <v>0.07872257196854167</v>
+        <v>0.06674606353643142</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H32">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I32">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J32">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N32">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O32">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P32">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q32">
-        <v>1.440569301338473</v>
+        <v>3.420242726637</v>
       </c>
       <c r="R32">
-        <v>1.440569301338473</v>
+        <v>13.680970906548</v>
       </c>
       <c r="S32">
-        <v>6.456251439127694E-05</v>
+        <v>0.000144432597218186</v>
       </c>
       <c r="T32">
-        <v>6.456251439127694E-05</v>
+        <v>8.066136600859463E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H33">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I33">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J33">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N33">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O33">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P33">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q33">
-        <v>192.282341166434</v>
+        <v>225.154717473015</v>
       </c>
       <c r="R33">
-        <v>192.282341166434</v>
+        <v>1350.92830483809</v>
       </c>
       <c r="S33">
-        <v>0.008617587093666309</v>
+        <v>0.009508003735316718</v>
       </c>
       <c r="T33">
-        <v>0.008617587093666309</v>
+        <v>0.007964911495847216</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H34">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I34">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J34">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N34">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O34">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P34">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q34">
-        <v>157.3337474839458</v>
+        <v>173.7660100714963</v>
       </c>
       <c r="R34">
-        <v>157.3337474839458</v>
+        <v>1042.596060428978</v>
       </c>
       <c r="S34">
-        <v>0.007051283354940183</v>
+        <v>0.007337922524447586</v>
       </c>
       <c r="T34">
-        <v>0.007051283354940183</v>
+        <v>0.006147021509206626</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H35">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I35">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J35">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N35">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O35">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P35">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q35">
-        <v>157.4444905259325</v>
+        <v>176.9737266088147</v>
       </c>
       <c r="R35">
-        <v>157.4444905259325</v>
+        <v>1061.842359652888</v>
       </c>
       <c r="S35">
-        <v>0.007056246565828652</v>
+        <v>0.007473380404970633</v>
       </c>
       <c r="T35">
-        <v>0.007056246565828652</v>
+        <v>0.006260495384461174</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H36">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I36">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J36">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N36">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O36">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P36">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q36">
-        <v>7.855436914709903</v>
+        <v>9.630995808727336</v>
       </c>
       <c r="R36">
-        <v>7.855436914709903</v>
+        <v>57.78597485236401</v>
       </c>
       <c r="S36">
-        <v>0.0003520599518429995</v>
+        <v>0.0004067049767019608</v>
       </c>
       <c r="T36">
-        <v>0.0003520599518429995</v>
+        <v>0.0003406991871826201</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.8871919318718</v>
+        <v>7.571113</v>
       </c>
       <c r="H37">
-        <v>6.8871919318718</v>
+        <v>15.142226</v>
       </c>
       <c r="I37">
-        <v>0.03534836961510955</v>
+        <v>0.03779710509947509</v>
       </c>
       <c r="J37">
-        <v>0.03534836961510955</v>
+        <v>0.02801294959650559</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N37">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O37">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P37">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q37">
-        <v>272.3638756987974</v>
+        <v>306.1103839470105</v>
       </c>
       <c r="R37">
-        <v>272.3638756987974</v>
+        <v>1224.441535788042</v>
       </c>
       <c r="S37">
-        <v>0.01220663013444013</v>
+        <v>0.01292666086082001</v>
       </c>
       <c r="T37">
-        <v>0.01220663013444013</v>
+        <v>0.007219160653799351</v>
       </c>
     </row>
   </sheetData>
